--- a/documentation/timemanagment/mechtijev-timemanagment.xlsx
+++ b/documentation/timemanagment/mechtijev-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\SS21\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57330161-C243-42ED-874F-C920E089E411}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58BD60F-9CB5-436B-9B76-DE750A4F49FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="2640" windowWidth="22380" windowHeight="14790" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-21600" yWindow="-1755" windowWidth="21600" windowHeight="12600" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -107,6 +107,21 @@
   <si>
     <t>GUI-Prototyp - file formatting</t>
   </si>
+  <si>
+    <t>ER Diagramm erstellen</t>
+  </si>
+  <si>
+    <t>Besprechung</t>
+  </si>
+  <si>
+    <t>Anpassung des ER Diagramms</t>
+  </si>
+  <si>
+    <t>Projekt local aufsetzen</t>
+  </si>
+  <si>
+    <t>Einarbeitung des Feedbacks</t>
+  </si>
 </sst>
 </file>
 
@@ -186,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -200,6 +215,9 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +538,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -642,29 +660,74 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="8">
+        <v>44283</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="8">
+        <v>44283</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="8">
+        <v>44283</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="8">
+        <v>44291</v>
+      </c>
+      <c r="B12" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="8">
+        <v>44292</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8"/>

--- a/documentation/timemanagment/mechtijev-timemanagment.xlsx
+++ b/documentation/timemanagment/mechtijev-timemanagment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\SS21\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58BD60F-9CB5-436B-9B76-DE750A4F49FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268ADE9B-CE2D-46EF-97D6-DD0716EE4C78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-1755" windowWidth="21600" windowHeight="12600" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21585" windowHeight="12600" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>Einarbeitung des Feedbacks</t>
+  </si>
+  <si>
+    <t>Signup/Login forms erstellen</t>
+  </si>
+  <si>
+    <t>Meeting/Status update</t>
+  </si>
+  <si>
+    <t>Signup/Login mit API verbinden</t>
+  </si>
+  <si>
+    <t>Dummy daten erstellen</t>
   </si>
 </sst>
 </file>
@@ -538,7 +550,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -730,24 +742,60 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="8">
+        <v>44294</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8">
+        <v>44296</v>
+      </c>
+      <c r="B15" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="8">
+        <v>44297</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="8">
+        <v>44297</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8"/>

--- a/documentation/timemanagment/mechtijev-timemanagment.xlsx
+++ b/documentation/timemanagment/mechtijev-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\SS21\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268ADE9B-CE2D-46EF-97D6-DD0716EE4C78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957EC724-1054-42DC-B13A-CC0CBD601397}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21585" windowHeight="12600" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-16200" yWindow="11355" windowWidth="21585" windowHeight="12600" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>Dummy daten erstellen</t>
+  </si>
+  <si>
+    <t>Proseminar</t>
+  </si>
+  <si>
+    <t>Statusupdate Besprechung</t>
+  </si>
+  <si>
+    <t>Hiflestellung bei API</t>
+  </si>
+  <si>
+    <t>Signup/Login anpassen an API änderungen</t>
   </si>
 </sst>
 </file>
@@ -550,7 +562,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -798,24 +810,60 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B18" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B19" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="8">
+        <v>44303</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8"/>

--- a/documentation/timemanagment/mechtijev-timemanagment.xlsx
+++ b/documentation/timemanagment/mechtijev-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\SS21\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957EC724-1054-42DC-B13A-CC0CBD601397}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F572E-9050-43B3-B3DB-B272EAE9C758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16200" yWindow="11355" windowWidth="21585" windowHeight="12600" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="9600" yWindow="13995" windowWidth="21585" windowHeight="12600" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Signup/Login anpassen an API änderungen</t>
+  </si>
+  <si>
+    <t>Auth service improvements</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -866,9 +869,18 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="8">
+        <v>44304</v>
+      </c>
+      <c r="B22" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8"/>

--- a/documentation/timemanagment/mechtijev-timemanagment.xlsx
+++ b/documentation/timemanagment/mechtijev-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\SS21\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F572E-9050-43B3-B3DB-B272EAE9C758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD358577-CF40-499B-B4F8-D1FC668E73DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="13995" windowWidth="21585" windowHeight="12600" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="9600" yWindow="10860" windowWidth="21585" windowHeight="12600" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -147,7 +147,22 @@
     <t>Signup/Login anpassen an API änderungen</t>
   </si>
   <si>
-    <t>Auth service improvements</t>
+    <t>Topics API Tests</t>
+  </si>
+  <si>
+    <t>Auth service verbesserungen</t>
+  </si>
+  <si>
+    <t>Profil seite frontend</t>
+  </si>
+  <si>
+    <t>Profil seite &amp; user bearbeiten</t>
+  </si>
+  <si>
+    <t>Profil seite fertig stellen =&gt; MR</t>
+  </si>
+  <si>
+    <t>Feedback zum MR übernehmen</t>
   </si>
 </sst>
 </file>
@@ -562,10 +577,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -879,33 +894,78 @@
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8">
+        <v>44307</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
-    </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="8">
+        <v>44308</v>
+      </c>
+      <c r="B24" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="8">
+        <v>44309</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="8">
+        <v>44310</v>
+      </c>
+      <c r="B26" s="7">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="8">
+        <v>44311</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>

--- a/documentation/timemanagment/mechtijev-timemanagment.xlsx
+++ b/documentation/timemanagment/mechtijev-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\SS21\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD358577-CF40-499B-B4F8-D1FC668E73DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0694D052-BA20-48ED-8D6A-F050107BD765}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="10860" windowWidth="21585" windowHeight="12600" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>Feedback zum MR übernehmen</t>
+  </si>
+  <si>
+    <t>Spielraum overview/ Spielraum erstellen</t>
+  </si>
+  <si>
+    <t>Spielraum overview/ Spielraum API + dummy daten</t>
+  </si>
+  <si>
+    <t>Spielraum services &amp; store</t>
+  </si>
+  <si>
+    <t>MR, Speilraum &amp; JSON import</t>
   </si>
 </sst>
 </file>
@@ -580,7 +592,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -968,34 +980,88 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="8">
+        <v>44311</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="8">
+        <v>44313</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.15625</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="8">
+        <v>44314</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B32" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B33" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8"/>

--- a/documentation/timemanagment/mechtijev-timemanagment.xlsx
+++ b/documentation/timemanagment/mechtijev-timemanagment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\SS21\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0694D052-BA20-48ED-8D6A-F050107BD765}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67FE3DB-F275-494D-9326-BF0945B7D5B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="10860" windowWidth="21585" windowHeight="12600" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-75" yWindow="10050" windowWidth="21585" windowHeight="12600" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>Datum</t>
   </si>
@@ -175,6 +175,24 @@
   </si>
   <si>
     <t>MR, Speilraum &amp; JSON import</t>
+  </si>
+  <si>
+    <t>Jour Fixe - Statusupdate</t>
+  </si>
+  <si>
+    <t>Term importer</t>
+  </si>
+  <si>
+    <t>Admin dashboard (Tables and forms)</t>
+  </si>
+  <si>
+    <t>Admin dashboard</t>
+  </si>
+  <si>
+    <t>Admin dasboard Topic/Terms features</t>
+  </si>
+  <si>
+    <t>Admin dashboard Users</t>
   </si>
 </sst>
 </file>
@@ -592,7 +610,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1051,7 +1069,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B33" s="7">
         <v>6.25E-2</v>
@@ -1064,39 +1082,102 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="8">
+        <v>44319</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="8">
+        <v>44321</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B36" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B37" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8"/>

--- a/documentation/timemanagment/mechtijev-timemanagment.xlsx
+++ b/documentation/timemanagment/mechtijev-timemanagment.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99F412B9-F5D8-4DA1-A083-0BD88BECF791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\SS21\Software Engineering\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B99C4D-245B-477C-B0A6-5FAC21B21D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="10050" windowWidth="21585" windowHeight="5550" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="69">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -244,6 +249,15 @@
   <si>
     <t>Konfiguration und Deployment</t>
   </si>
+  <si>
+    <t>Feedback Issues abarbeiten</t>
+  </si>
+  <si>
+    <t>User statistics FE &amp; Backend debug &amp; Game room issues</t>
+  </si>
+  <si>
+    <t>Translation issues fix</t>
+  </si>
 </sst>
 </file>
 
@@ -443,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1620,7 +1634,7 @@
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" ht="18.75">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1631,14 +1645,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" ht="15.75">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" ht="15.75">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>5</v>
@@ -1647,14 +1661,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" ht="15.75">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" ht="15.75">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -1679,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -2412,73 +2426,153 @@
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="16"/>
+      <c r="A49" s="19">
+        <v>44326</v>
+      </c>
+      <c r="B49" s="18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A50" s="19"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="16"/>
+      <c r="A50" s="19">
+        <v>44347</v>
+      </c>
+      <c r="B50" s="18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A51" s="19"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="16"/>
+      <c r="A51" s="19">
+        <v>44352</v>
+      </c>
+      <c r="B51" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A52" s="19"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="16"/>
+      <c r="A52" s="19">
+        <v>44354</v>
+      </c>
+      <c r="B52" s="18">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A53" s="19"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="16"/>
+      <c r="A53" s="19">
+        <v>44357</v>
+      </c>
+      <c r="B53" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A54" s="19"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="16"/>
+      <c r="A54" s="19">
+        <v>44481</v>
+      </c>
+      <c r="B54" s="18">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="16"/>
+      <c r="A55" s="19">
+        <v>44277</v>
+      </c>
+      <c r="B55" s="18">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A56" s="19"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="16"/>
+      <c r="A56" s="19">
+        <v>44312</v>
+      </c>
+      <c r="B56" s="18">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A57" s="19"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="16"/>
+      <c r="A57" s="19">
+        <v>44326</v>
+      </c>
+      <c r="B57" s="18">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A58" s="19"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="16"/>
+      <c r="A58" s="19">
+        <v>44347</v>
+      </c>
+      <c r="B58" s="18">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5" ht="15.4" customHeight="1">
@@ -9089,7 +9183,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/documentation/timemanagment/mechtijev-timemanagment.xlsx
+++ b/documentation/timemanagment/mechtijev-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\SS21\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B99C4D-245B-477C-B0A6-5FAC21B21D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CF32F7-FB88-4E34-AB2C-D09B21DCC17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="10050" windowWidth="21585" windowHeight="5550" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -1694,7 +1694,7 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -2576,10 +2576,18 @@
       <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A59" s="19"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="16"/>
+      <c r="A59" s="19">
+        <v>44358</v>
+      </c>
+      <c r="B59" s="18">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5" ht="15.4" customHeight="1">

--- a/documentation/timemanagment/mechtijev-timemanagment.xlsx
+++ b/documentation/timemanagment/mechtijev-timemanagment.xlsx
@@ -5,19 +5,19 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\SS21\Software Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CF32F7-FB88-4E34-AB2C-D09B21DCC17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B532DBFA-D6B1-40A5-9F8C-5799CB9E4B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Datenerfassung" sheetId="2" r:id="rId2"/>
     <sheet name="Tätigkeiten" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -65,6 +65,7 @@
         <sz val="14"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Dauer 
 </t>
@@ -273,18 +274,21 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -296,12 +300,14 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -457,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1621,7 +1627,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="4" width="28" customWidth="1"/>
@@ -1693,11 +1699,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="5" customWidth="1"/>
@@ -1727,7 +1733,7 @@
         <v>43891</v>
       </c>
       <c r="B2" s="11">
-        <v>1.083333333333333</v>
+        <v>8.3333333333329998E-2</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>11</v>
@@ -1742,7 +1748,7 @@
         <v>44262</v>
       </c>
       <c r="B3" s="18">
-        <v>1.0277777777777779</v>
+        <v>2.777777777778E-2</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>13</v>
@@ -1757,7 +1763,7 @@
         <v>44263</v>
       </c>
       <c r="B4" s="18">
-        <v>1.055555555555556</v>
+        <v>5.555555555556E-2</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>11</v>
@@ -1772,7 +1778,7 @@
         <v>44268</v>
       </c>
       <c r="B5" s="18">
-        <v>1.15625</v>
+        <v>0.15625</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>13</v>
@@ -1785,7 +1791,7 @@
         <v>44269</v>
       </c>
       <c r="B6" s="18">
-        <v>1.09375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>13</v>
@@ -1800,7 +1806,7 @@
         <v>44270</v>
       </c>
       <c r="B7" s="18">
-        <v>1.020833333333333</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>13</v>
@@ -1815,7 +1821,7 @@
         <v>44273</v>
       </c>
       <c r="B8" s="18">
-        <v>1.020833333333333</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>13</v>
@@ -1830,7 +1836,7 @@
         <v>44283</v>
       </c>
       <c r="B9" s="18">
-        <v>1.104166666666667</v>
+        <v>0.10416666666667</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>13</v>
@@ -1845,7 +1851,7 @@
         <v>44283</v>
       </c>
       <c r="B10" s="18">
-        <v>1.041666666666667</v>
+        <v>4.1666666666670002E-2</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>20</v>
@@ -1860,7 +1866,7 @@
         <v>44283</v>
       </c>
       <c r="B11" s="18">
-        <v>1.020833333333333</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>13</v>
@@ -1875,7 +1881,7 @@
         <v>44291</v>
       </c>
       <c r="B12" s="18">
-        <v>1.083333333333333</v>
+        <v>8.3333333333329998E-2</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>23</v>
@@ -1890,7 +1896,7 @@
         <v>44292</v>
       </c>
       <c r="B13" s="18">
-        <v>1.03125</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>13</v>
@@ -1905,7 +1911,7 @@
         <v>44294</v>
       </c>
       <c r="B14" s="18">
-        <v>1.1875</v>
+        <v>0.1875</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>23</v>
@@ -1920,7 +1926,7 @@
         <v>44296</v>
       </c>
       <c r="B15" s="18">
-        <v>1.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>13</v>
@@ -1935,7 +1941,7 @@
         <v>44297</v>
       </c>
       <c r="B16" s="18">
-        <v>1.1527777777777779</v>
+        <v>0.15277777777778001</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>23</v>
@@ -1950,7 +1956,7 @@
         <v>44297</v>
       </c>
       <c r="B17" s="18">
-        <v>1.083333333333333</v>
+        <v>8.3333333333329998E-2</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>23</v>
@@ -1965,7 +1971,7 @@
         <v>44298</v>
       </c>
       <c r="B18" s="18">
-        <v>1.083333333333333</v>
+        <v>8.3333333333329998E-2</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>11</v>
@@ -1980,7 +1986,7 @@
         <v>44298</v>
       </c>
       <c r="B19" s="18">
-        <v>1.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>20</v>
@@ -1995,7 +2001,7 @@
         <v>44302</v>
       </c>
       <c r="B20" s="18">
-        <v>1.020833333333333</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>23</v>
@@ -2010,7 +2016,7 @@
         <v>44303</v>
       </c>
       <c r="B21" s="18">
-        <v>1.104166666666667</v>
+        <v>0.10416666666667</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>23</v>
@@ -2025,7 +2031,7 @@
         <v>44304</v>
       </c>
       <c r="B22" s="18">
-        <v>1.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>23</v>
@@ -2040,7 +2046,7 @@
         <v>44307</v>
       </c>
       <c r="B23" s="18">
-        <v>1.041666666666667</v>
+        <v>4.1666666666670002E-2</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>35</v>
@@ -2055,7 +2061,7 @@
         <v>44308</v>
       </c>
       <c r="B24" s="18">
-        <v>1.09375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>23</v>
@@ -2070,7 +2076,7 @@
         <v>44309</v>
       </c>
       <c r="B25" s="18">
-        <v>1.135416666666667</v>
+        <v>0.13541666666666999</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>23</v>
@@ -2085,7 +2091,7 @@
         <v>44310</v>
       </c>
       <c r="B26" s="18">
-        <v>1.0902777777777779</v>
+        <v>9.0277777777779997E-2</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>23</v>
@@ -2100,7 +2106,7 @@
         <v>44311</v>
       </c>
       <c r="B27" s="18">
-        <v>1.0277777777777779</v>
+        <v>2.777777777778E-2</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>23</v>
@@ -2115,7 +2121,7 @@
         <v>44311</v>
       </c>
       <c r="B28" s="18">
-        <v>1.041666666666667</v>
+        <v>4.1666666666670002E-2</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>20</v>
@@ -2130,7 +2136,7 @@
         <v>44313</v>
       </c>
       <c r="B29" s="18">
-        <v>1.15625</v>
+        <v>0.15625</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>23</v>
@@ -2145,7 +2151,7 @@
         <v>44314</v>
       </c>
       <c r="B30" s="18">
-        <v>1.100694444444444</v>
+        <v>0.10069444444444001</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>23</v>
@@ -2160,7 +2166,7 @@
         <v>44316</v>
       </c>
       <c r="B31" s="18">
-        <v>1.291666666666667</v>
+        <v>0.29166666666667002</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>23</v>
@@ -2175,7 +2181,7 @@
         <v>44316</v>
       </c>
       <c r="B32" s="18">
-        <v>1.020833333333333</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>20</v>
@@ -2190,7 +2196,7 @@
         <v>44317</v>
       </c>
       <c r="B33" s="18">
-        <v>1.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>23</v>
@@ -2205,7 +2211,7 @@
         <v>44319</v>
       </c>
       <c r="B34" s="18">
-        <v>1.03125</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>20</v>
@@ -2220,7 +2226,7 @@
         <v>44321</v>
       </c>
       <c r="B35" s="18">
-        <v>1.135416666666667</v>
+        <v>0.13541666666666999</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>23</v>
@@ -2235,7 +2241,7 @@
         <v>44322</v>
       </c>
       <c r="B36" s="18">
-        <v>1.09375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>23</v>
@@ -2250,7 +2256,7 @@
         <v>44323</v>
       </c>
       <c r="B37" s="18">
-        <v>1.041666666666667</v>
+        <v>4.1666666666670002E-2</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>20</v>
@@ -2265,7 +2271,7 @@
         <v>44323</v>
       </c>
       <c r="B38" s="18">
-        <v>1.166666666666667</v>
+        <v>0.16666666666666999</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>23</v>
@@ -2280,7 +2286,7 @@
         <v>44324</v>
       </c>
       <c r="B39" s="18">
-        <v>1.135416666666667</v>
+        <v>0.13541666666666999</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>23</v>
@@ -2295,7 +2301,7 @@
         <v>44325</v>
       </c>
       <c r="B40" s="18">
-        <v>1.166666666666667</v>
+        <v>0.16666666666666999</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>23</v>
@@ -2310,7 +2316,7 @@
         <v>44326</v>
       </c>
       <c r="B41" s="18">
-        <v>44332.145833333336</v>
+        <v>0.14583333330000001</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>23</v>
@@ -2325,7 +2331,7 @@
         <v>44327</v>
       </c>
       <c r="B42" s="18">
-        <v>44332.104166666664</v>
+        <v>0.10416666669999999</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>23</v>
@@ -2340,7 +2346,7 @@
         <v>44328</v>
       </c>
       <c r="B43" s="18">
-        <v>44332.302083333336</v>
+        <v>0.30208333329999998</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>23</v>
@@ -2355,7 +2361,7 @@
         <v>44329</v>
       </c>
       <c r="B44" s="18">
-        <v>44332.520833333336</v>
+        <v>0.52083333330000003</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>23</v>
@@ -2370,7 +2376,7 @@
         <v>44331</v>
       </c>
       <c r="B45" s="18">
-        <v>44332.1875</v>
+        <v>0.1875</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>23</v>
@@ -2385,7 +2391,7 @@
         <v>44332</v>
       </c>
       <c r="B46" s="18">
-        <v>44332.041666666664</v>
+        <v>4.16666667E-2</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>23</v>
@@ -2400,7 +2406,7 @@
         <v>44335</v>
       </c>
       <c r="B47" s="18">
-        <v>0.10416666666666667</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>56</v>
@@ -2415,7 +2421,7 @@
         <v>44344</v>
       </c>
       <c r="B48" s="18">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>20</v>
@@ -2460,7 +2466,7 @@
         <v>44352</v>
       </c>
       <c r="B51" s="18">
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>23</v>
@@ -2475,7 +2481,7 @@
         <v>44354</v>
       </c>
       <c r="B52" s="18">
-        <v>2.0833333333333332E-2</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>20</v>
@@ -2490,7 +2496,7 @@
         <v>44357</v>
       </c>
       <c r="B53" s="18">
-        <v>0.33333333333333331</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>23</v>
@@ -2505,7 +2511,7 @@
         <v>44481</v>
       </c>
       <c r="B54" s="18">
-        <v>5.2083333333333336E-2</v>
+        <v>5.2083333333333301E-2</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>23</v>
@@ -2520,7 +2526,7 @@
         <v>44277</v>
       </c>
       <c r="B55" s="18">
-        <v>7.2916666666666671E-2</v>
+        <v>7.2916666666666699E-2</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>11</v>
@@ -2535,7 +2541,7 @@
         <v>44312</v>
       </c>
       <c r="B56" s="18">
-        <v>7.2916666666666671E-2</v>
+        <v>7.2916666666666699E-2</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>11</v>
@@ -2550,7 +2556,7 @@
         <v>44326</v>
       </c>
       <c r="B57" s="18">
-        <v>7.2916666666666671E-2</v>
+        <v>7.2916666666666699E-2</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>11</v>
@@ -2565,7 +2571,7 @@
         <v>44347</v>
       </c>
       <c r="B58" s="18">
-        <v>7.2916666666666671E-2</v>
+        <v>7.2916666666666699E-2</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>11</v>
@@ -2949,616 +2955,616 @@
     </row>
     <row r="111" spans="1:5" ht="15.4" customHeight="1">
       <c r="A111" s="19"/>
-      <c r="B111" s="18"/>
+      <c r="B111" s="24"/>
       <c r="C111" s="14"/>
       <c r="D111" s="16"/>
       <c r="E111" s="14"/>
     </row>
     <row r="112" spans="1:5" ht="15.4" customHeight="1">
       <c r="A112" s="19"/>
-      <c r="B112" s="18"/>
+      <c r="B112" s="24"/>
       <c r="C112" s="14"/>
       <c r="D112" s="16"/>
       <c r="E112" s="14"/>
     </row>
     <row r="113" spans="1:5" ht="15.4" customHeight="1">
       <c r="A113" s="19"/>
-      <c r="B113" s="18"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="14"/>
       <c r="D113" s="16"/>
       <c r="E113" s="14"/>
     </row>
     <row r="114" spans="1:5" ht="15.4" customHeight="1">
       <c r="A114" s="19"/>
-      <c r="B114" s="18"/>
+      <c r="B114" s="24"/>
       <c r="C114" s="14"/>
       <c r="D114" s="16"/>
       <c r="E114" s="14"/>
     </row>
     <row r="115" spans="1:5" ht="15.4" customHeight="1">
       <c r="A115" s="19"/>
-      <c r="B115" s="18"/>
+      <c r="B115" s="24"/>
       <c r="C115" s="14"/>
       <c r="D115" s="16"/>
       <c r="E115" s="14"/>
     </row>
     <row r="116" spans="1:5" ht="15.4" customHeight="1">
       <c r="A116" s="19"/>
-      <c r="B116" s="18"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="14"/>
       <c r="D116" s="16"/>
       <c r="E116" s="14"/>
     </row>
     <row r="117" spans="1:5" ht="15.4" customHeight="1">
       <c r="A117" s="19"/>
-      <c r="B117" s="18"/>
+      <c r="B117" s="24"/>
       <c r="C117" s="14"/>
       <c r="D117" s="16"/>
       <c r="E117" s="14"/>
     </row>
     <row r="118" spans="1:5" ht="15.4" customHeight="1">
       <c r="A118" s="19"/>
-      <c r="B118" s="18"/>
+      <c r="B118" s="24"/>
       <c r="C118" s="14"/>
       <c r="D118" s="16"/>
       <c r="E118" s="14"/>
     </row>
     <row r="119" spans="1:5" ht="15.4" customHeight="1">
       <c r="A119" s="19"/>
-      <c r="B119" s="18"/>
+      <c r="B119" s="24"/>
       <c r="C119" s="14"/>
       <c r="D119" s="16"/>
       <c r="E119" s="14"/>
     </row>
     <row r="120" spans="1:5" ht="15.4" customHeight="1">
       <c r="A120" s="19"/>
-      <c r="B120" s="18"/>
+      <c r="B120" s="24"/>
       <c r="C120" s="14"/>
       <c r="D120" s="16"/>
       <c r="E120" s="14"/>
     </row>
     <row r="121" spans="1:5" ht="15.4" customHeight="1">
       <c r="A121" s="19"/>
-      <c r="B121" s="18"/>
+      <c r="B121" s="24"/>
       <c r="C121" s="14"/>
       <c r="D121" s="16"/>
       <c r="E121" s="14"/>
     </row>
     <row r="122" spans="1:5" ht="15.4" customHeight="1">
       <c r="A122" s="19"/>
-      <c r="B122" s="18"/>
+      <c r="B122" s="24"/>
       <c r="C122" s="14"/>
       <c r="D122" s="16"/>
       <c r="E122" s="14"/>
     </row>
     <row r="123" spans="1:5" ht="15.4" customHeight="1">
       <c r="A123" s="19"/>
-      <c r="B123" s="18"/>
+      <c r="B123" s="24"/>
       <c r="C123" s="14"/>
       <c r="D123" s="16"/>
       <c r="E123" s="14"/>
     </row>
     <row r="124" spans="1:5" ht="15.4" customHeight="1">
       <c r="A124" s="19"/>
-      <c r="B124" s="18"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="14"/>
       <c r="D124" s="16"/>
       <c r="E124" s="14"/>
     </row>
     <row r="125" spans="1:5" ht="15.4" customHeight="1">
       <c r="A125" s="19"/>
-      <c r="B125" s="18"/>
+      <c r="B125" s="24"/>
       <c r="C125" s="14"/>
       <c r="D125" s="16"/>
       <c r="E125" s="14"/>
     </row>
     <row r="126" spans="1:5" ht="15.4" customHeight="1">
       <c r="A126" s="19"/>
-      <c r="B126" s="18"/>
+      <c r="B126" s="24"/>
       <c r="C126" s="14"/>
       <c r="D126" s="16"/>
       <c r="E126" s="14"/>
     </row>
     <row r="127" spans="1:5" ht="15.4" customHeight="1">
       <c r="A127" s="19"/>
-      <c r="B127" s="18"/>
+      <c r="B127" s="24"/>
       <c r="C127" s="14"/>
       <c r="D127" s="16"/>
       <c r="E127" s="14"/>
     </row>
     <row r="128" spans="1:5" ht="15.4" customHeight="1">
       <c r="A128" s="19"/>
-      <c r="B128" s="18"/>
+      <c r="B128" s="24"/>
       <c r="C128" s="14"/>
       <c r="D128" s="16"/>
       <c r="E128" s="14"/>
     </row>
     <row r="129" spans="1:5" ht="15.4" customHeight="1">
       <c r="A129" s="19"/>
-      <c r="B129" s="18"/>
+      <c r="B129" s="24"/>
       <c r="C129" s="14"/>
       <c r="D129" s="16"/>
       <c r="E129" s="14"/>
     </row>
     <row r="130" spans="1:5" ht="15.4" customHeight="1">
       <c r="A130" s="19"/>
-      <c r="B130" s="18"/>
+      <c r="B130" s="24"/>
       <c r="C130" s="14"/>
       <c r="D130" s="16"/>
       <c r="E130" s="14"/>
     </row>
     <row r="131" spans="1:5" ht="15.4" customHeight="1">
       <c r="A131" s="19"/>
-      <c r="B131" s="18"/>
+      <c r="B131" s="24"/>
       <c r="C131" s="14"/>
       <c r="D131" s="16"/>
       <c r="E131" s="14"/>
     </row>
     <row r="132" spans="1:5" ht="15.4" customHeight="1">
       <c r="A132" s="19"/>
-      <c r="B132" s="18"/>
+      <c r="B132" s="24"/>
       <c r="C132" s="14"/>
       <c r="D132" s="16"/>
       <c r="E132" s="14"/>
     </row>
     <row r="133" spans="1:5" ht="15.4" customHeight="1">
       <c r="A133" s="19"/>
-      <c r="B133" s="18"/>
+      <c r="B133" s="24"/>
       <c r="C133" s="14"/>
       <c r="D133" s="16"/>
       <c r="E133" s="14"/>
     </row>
     <row r="134" spans="1:5" ht="15.4" customHeight="1">
       <c r="A134" s="19"/>
-      <c r="B134" s="18"/>
+      <c r="B134" s="24"/>
       <c r="C134" s="14"/>
       <c r="D134" s="16"/>
       <c r="E134" s="14"/>
     </row>
     <row r="135" spans="1:5" ht="15.4" customHeight="1">
       <c r="A135" s="19"/>
-      <c r="B135" s="18"/>
+      <c r="B135" s="24"/>
       <c r="C135" s="14"/>
       <c r="D135" s="16"/>
       <c r="E135" s="14"/>
     </row>
     <row r="136" spans="1:5" ht="15.4" customHeight="1">
       <c r="A136" s="19"/>
-      <c r="B136" s="18"/>
+      <c r="B136" s="24"/>
       <c r="C136" s="14"/>
       <c r="D136" s="16"/>
       <c r="E136" s="14"/>
     </row>
     <row r="137" spans="1:5" ht="15.4" customHeight="1">
       <c r="A137" s="19"/>
-      <c r="B137" s="18"/>
+      <c r="B137" s="24"/>
       <c r="C137" s="14"/>
       <c r="D137" s="16"/>
       <c r="E137" s="14"/>
     </row>
     <row r="138" spans="1:5" ht="15.4" customHeight="1">
       <c r="A138" s="19"/>
-      <c r="B138" s="18"/>
+      <c r="B138" s="24"/>
       <c r="C138" s="14"/>
       <c r="D138" s="16"/>
       <c r="E138" s="14"/>
     </row>
     <row r="139" spans="1:5" ht="15.4" customHeight="1">
       <c r="A139" s="19"/>
-      <c r="B139" s="18"/>
+      <c r="B139" s="24"/>
       <c r="C139" s="14"/>
       <c r="D139" s="16"/>
       <c r="E139" s="14"/>
     </row>
     <row r="140" spans="1:5" ht="15.4" customHeight="1">
       <c r="A140" s="19"/>
-      <c r="B140" s="18"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="14"/>
       <c r="D140" s="16"/>
       <c r="E140" s="14"/>
     </row>
     <row r="141" spans="1:5" ht="15.4" customHeight="1">
       <c r="A141" s="19"/>
-      <c r="B141" s="18"/>
+      <c r="B141" s="24"/>
       <c r="C141" s="14"/>
       <c r="D141" s="16"/>
       <c r="E141" s="14"/>
     </row>
     <row r="142" spans="1:5" ht="15.4" customHeight="1">
       <c r="A142" s="19"/>
-      <c r="B142" s="18"/>
+      <c r="B142" s="24"/>
       <c r="C142" s="14"/>
       <c r="D142" s="16"/>
       <c r="E142" s="14"/>
     </row>
     <row r="143" spans="1:5" ht="15.4" customHeight="1">
       <c r="A143" s="19"/>
-      <c r="B143" s="18"/>
+      <c r="B143" s="24"/>
       <c r="C143" s="14"/>
       <c r="D143" s="16"/>
       <c r="E143" s="14"/>
     </row>
     <row r="144" spans="1:5" ht="15.4" customHeight="1">
       <c r="A144" s="19"/>
-      <c r="B144" s="18"/>
+      <c r="B144" s="24"/>
       <c r="C144" s="14"/>
       <c r="D144" s="16"/>
       <c r="E144" s="14"/>
     </row>
     <row r="145" spans="1:5" ht="15.4" customHeight="1">
       <c r="A145" s="19"/>
-      <c r="B145" s="18"/>
+      <c r="B145" s="24"/>
       <c r="C145" s="14"/>
       <c r="D145" s="16"/>
       <c r="E145" s="14"/>
     </row>
     <row r="146" spans="1:5" ht="15.4" customHeight="1">
       <c r="A146" s="19"/>
-      <c r="B146" s="18"/>
+      <c r="B146" s="24"/>
       <c r="C146" s="14"/>
       <c r="D146" s="16"/>
       <c r="E146" s="14"/>
     </row>
     <row r="147" spans="1:5" ht="15.4" customHeight="1">
       <c r="A147" s="19"/>
-      <c r="B147" s="18"/>
+      <c r="B147" s="24"/>
       <c r="C147" s="14"/>
       <c r="D147" s="16"/>
       <c r="E147" s="14"/>
     </row>
     <row r="148" spans="1:5" ht="15.4" customHeight="1">
       <c r="A148" s="19"/>
-      <c r="B148" s="18"/>
+      <c r="B148" s="24"/>
       <c r="C148" s="14"/>
       <c r="D148" s="16"/>
       <c r="E148" s="14"/>
     </row>
     <row r="149" spans="1:5" ht="15.4" customHeight="1">
       <c r="A149" s="19"/>
-      <c r="B149" s="18"/>
+      <c r="B149" s="24"/>
       <c r="C149" s="14"/>
       <c r="D149" s="16"/>
       <c r="E149" s="14"/>
     </row>
     <row r="150" spans="1:5" ht="15.4" customHeight="1">
       <c r="A150" s="19"/>
-      <c r="B150" s="18"/>
+      <c r="B150" s="24"/>
       <c r="C150" s="14"/>
       <c r="D150" s="16"/>
       <c r="E150" s="14"/>
     </row>
     <row r="151" spans="1:5" ht="15.4" customHeight="1">
       <c r="A151" s="19"/>
-      <c r="B151" s="18"/>
+      <c r="B151" s="24"/>
       <c r="C151" s="14"/>
       <c r="D151" s="16"/>
       <c r="E151" s="14"/>
     </row>
     <row r="152" spans="1:5" ht="15.4" customHeight="1">
       <c r="A152" s="19"/>
-      <c r="B152" s="18"/>
+      <c r="B152" s="24"/>
       <c r="C152" s="14"/>
       <c r="D152" s="16"/>
       <c r="E152" s="14"/>
     </row>
     <row r="153" spans="1:5" ht="15.4" customHeight="1">
       <c r="A153" s="19"/>
-      <c r="B153" s="18"/>
+      <c r="B153" s="24"/>
       <c r="C153" s="14"/>
       <c r="D153" s="16"/>
       <c r="E153" s="14"/>
     </row>
     <row r="154" spans="1:5" ht="15.4" customHeight="1">
       <c r="A154" s="19"/>
-      <c r="B154" s="18"/>
+      <c r="B154" s="24"/>
       <c r="C154" s="14"/>
       <c r="D154" s="16"/>
       <c r="E154" s="14"/>
     </row>
     <row r="155" spans="1:5" ht="15.4" customHeight="1">
       <c r="A155" s="19"/>
-      <c r="B155" s="18"/>
+      <c r="B155" s="24"/>
       <c r="C155" s="14"/>
       <c r="D155" s="16"/>
       <c r="E155" s="14"/>
     </row>
     <row r="156" spans="1:5" ht="15.4" customHeight="1">
       <c r="A156" s="19"/>
-      <c r="B156" s="18"/>
+      <c r="B156" s="24"/>
       <c r="C156" s="14"/>
       <c r="D156" s="16"/>
       <c r="E156" s="14"/>
     </row>
     <row r="157" spans="1:5" ht="15.4" customHeight="1">
       <c r="A157" s="19"/>
-      <c r="B157" s="18"/>
+      <c r="B157" s="24"/>
       <c r="C157" s="14"/>
       <c r="D157" s="16"/>
       <c r="E157" s="14"/>
     </row>
     <row r="158" spans="1:5" ht="15.4" customHeight="1">
       <c r="A158" s="19"/>
-      <c r="B158" s="18"/>
+      <c r="B158" s="24"/>
       <c r="C158" s="14"/>
       <c r="D158" s="16"/>
       <c r="E158" s="14"/>
     </row>
     <row r="159" spans="1:5" ht="15.4" customHeight="1">
       <c r="A159" s="19"/>
-      <c r="B159" s="18"/>
+      <c r="B159" s="24"/>
       <c r="C159" s="14"/>
       <c r="D159" s="16"/>
       <c r="E159" s="14"/>
     </row>
     <row r="160" spans="1:5" ht="15.4" customHeight="1">
       <c r="A160" s="19"/>
-      <c r="B160" s="18"/>
+      <c r="B160" s="24"/>
       <c r="C160" s="14"/>
       <c r="D160" s="16"/>
       <c r="E160" s="14"/>
     </row>
     <row r="161" spans="1:5" ht="15.4" customHeight="1">
       <c r="A161" s="19"/>
-      <c r="B161" s="18"/>
+      <c r="B161" s="24"/>
       <c r="C161" s="14"/>
       <c r="D161" s="16"/>
       <c r="E161" s="14"/>
     </row>
     <row r="162" spans="1:5" ht="15.4" customHeight="1">
       <c r="A162" s="19"/>
-      <c r="B162" s="18"/>
+      <c r="B162" s="24"/>
       <c r="C162" s="14"/>
       <c r="D162" s="16"/>
       <c r="E162" s="14"/>
     </row>
     <row r="163" spans="1:5" ht="15.4" customHeight="1">
       <c r="A163" s="19"/>
-      <c r="B163" s="18"/>
+      <c r="B163" s="24"/>
       <c r="C163" s="14"/>
       <c r="D163" s="16"/>
       <c r="E163" s="14"/>
     </row>
     <row r="164" spans="1:5" ht="15.4" customHeight="1">
       <c r="A164" s="19"/>
-      <c r="B164" s="18"/>
+      <c r="B164" s="24"/>
       <c r="C164" s="14"/>
       <c r="D164" s="16"/>
       <c r="E164" s="14"/>
     </row>
     <row r="165" spans="1:5" ht="15.4" customHeight="1">
       <c r="A165" s="19"/>
-      <c r="B165" s="18"/>
+      <c r="B165" s="24"/>
       <c r="C165" s="14"/>
       <c r="D165" s="16"/>
       <c r="E165" s="14"/>
     </row>
     <row r="166" spans="1:5" ht="15.4" customHeight="1">
       <c r="A166" s="19"/>
-      <c r="B166" s="18"/>
+      <c r="B166" s="24"/>
       <c r="C166" s="14"/>
       <c r="D166" s="16"/>
       <c r="E166" s="14"/>
     </row>
     <row r="167" spans="1:5" ht="15.4" customHeight="1">
       <c r="A167" s="19"/>
-      <c r="B167" s="18"/>
+      <c r="B167" s="24"/>
       <c r="C167" s="14"/>
       <c r="D167" s="16"/>
       <c r="E167" s="14"/>
     </row>
     <row r="168" spans="1:5" ht="15.4" customHeight="1">
       <c r="A168" s="19"/>
-      <c r="B168" s="18"/>
+      <c r="B168" s="24"/>
       <c r="C168" s="14"/>
       <c r="D168" s="16"/>
       <c r="E168" s="14"/>
     </row>
     <row r="169" spans="1:5" ht="15.4" customHeight="1">
       <c r="A169" s="19"/>
-      <c r="B169" s="18"/>
+      <c r="B169" s="24"/>
       <c r="C169" s="14"/>
       <c r="D169" s="16"/>
       <c r="E169" s="14"/>
     </row>
     <row r="170" spans="1:5" ht="15.4" customHeight="1">
       <c r="A170" s="19"/>
-      <c r="B170" s="18"/>
+      <c r="B170" s="24"/>
       <c r="C170" s="14"/>
       <c r="D170" s="16"/>
       <c r="E170" s="14"/>
     </row>
     <row r="171" spans="1:5" ht="15.4" customHeight="1">
       <c r="A171" s="19"/>
-      <c r="B171" s="18"/>
+      <c r="B171" s="24"/>
       <c r="C171" s="14"/>
       <c r="D171" s="16"/>
       <c r="E171" s="14"/>
     </row>
     <row r="172" spans="1:5" ht="15.4" customHeight="1">
       <c r="A172" s="19"/>
-      <c r="B172" s="18"/>
+      <c r="B172" s="24"/>
       <c r="C172" s="14"/>
       <c r="D172" s="16"/>
       <c r="E172" s="14"/>
     </row>
     <row r="173" spans="1:5" ht="15.4" customHeight="1">
       <c r="A173" s="19"/>
-      <c r="B173" s="18"/>
+      <c r="B173" s="24"/>
       <c r="C173" s="14"/>
       <c r="D173" s="16"/>
       <c r="E173" s="14"/>
     </row>
     <row r="174" spans="1:5" ht="15.4" customHeight="1">
       <c r="A174" s="19"/>
-      <c r="B174" s="18"/>
+      <c r="B174" s="24"/>
       <c r="C174" s="14"/>
       <c r="D174" s="16"/>
       <c r="E174" s="14"/>
     </row>
     <row r="175" spans="1:5" ht="15.4" customHeight="1">
       <c r="A175" s="19"/>
-      <c r="B175" s="18"/>
+      <c r="B175" s="24"/>
       <c r="C175" s="14"/>
       <c r="D175" s="16"/>
       <c r="E175" s="14"/>
     </row>
     <row r="176" spans="1:5" ht="15.4" customHeight="1">
       <c r="A176" s="19"/>
-      <c r="B176" s="18"/>
+      <c r="B176" s="24"/>
       <c r="C176" s="14"/>
       <c r="D176" s="16"/>
       <c r="E176" s="14"/>
     </row>
     <row r="177" spans="1:5" ht="15.4" customHeight="1">
       <c r="A177" s="19"/>
-      <c r="B177" s="18"/>
+      <c r="B177" s="24"/>
       <c r="C177" s="14"/>
       <c r="D177" s="16"/>
       <c r="E177" s="14"/>
     </row>
     <row r="178" spans="1:5" ht="15.4" customHeight="1">
       <c r="A178" s="19"/>
-      <c r="B178" s="18"/>
+      <c r="B178" s="24"/>
       <c r="C178" s="14"/>
       <c r="D178" s="16"/>
       <c r="E178" s="14"/>
     </row>
     <row r="179" spans="1:5" ht="15.4" customHeight="1">
       <c r="A179" s="19"/>
-      <c r="B179" s="18"/>
+      <c r="B179" s="24"/>
       <c r="C179" s="14"/>
       <c r="D179" s="16"/>
       <c r="E179" s="14"/>
     </row>
     <row r="180" spans="1:5" ht="15.4" customHeight="1">
       <c r="A180" s="19"/>
-      <c r="B180" s="18"/>
+      <c r="B180" s="24"/>
       <c r="C180" s="14"/>
       <c r="D180" s="16"/>
       <c r="E180" s="14"/>
     </row>
     <row r="181" spans="1:5" ht="15.4" customHeight="1">
       <c r="A181" s="19"/>
-      <c r="B181" s="18"/>
+      <c r="B181" s="24"/>
       <c r="C181" s="14"/>
       <c r="D181" s="16"/>
       <c r="E181" s="14"/>
     </row>
     <row r="182" spans="1:5" ht="15.4" customHeight="1">
       <c r="A182" s="19"/>
-      <c r="B182" s="18"/>
+      <c r="B182" s="24"/>
       <c r="C182" s="14"/>
       <c r="D182" s="16"/>
       <c r="E182" s="14"/>
     </row>
     <row r="183" spans="1:5" ht="15.4" customHeight="1">
       <c r="A183" s="19"/>
-      <c r="B183" s="18"/>
+      <c r="B183" s="24"/>
       <c r="C183" s="14"/>
       <c r="D183" s="16"/>
       <c r="E183" s="14"/>
     </row>
     <row r="184" spans="1:5" ht="15.4" customHeight="1">
       <c r="A184" s="19"/>
-      <c r="B184" s="18"/>
+      <c r="B184" s="24"/>
       <c r="C184" s="14"/>
       <c r="D184" s="16"/>
       <c r="E184" s="14"/>
     </row>
     <row r="185" spans="1:5" ht="15.4" customHeight="1">
       <c r="A185" s="19"/>
-      <c r="B185" s="18"/>
+      <c r="B185" s="24"/>
       <c r="C185" s="14"/>
       <c r="D185" s="16"/>
       <c r="E185" s="14"/>
     </row>
     <row r="186" spans="1:5" ht="15.4" customHeight="1">
       <c r="A186" s="19"/>
-      <c r="B186" s="18"/>
+      <c r="B186" s="24"/>
       <c r="C186" s="14"/>
       <c r="D186" s="16"/>
       <c r="E186" s="14"/>
     </row>
     <row r="187" spans="1:5" ht="15.4" customHeight="1">
       <c r="A187" s="19"/>
-      <c r="B187" s="18"/>
+      <c r="B187" s="24"/>
       <c r="C187" s="14"/>
       <c r="D187" s="16"/>
       <c r="E187" s="14"/>
     </row>
     <row r="188" spans="1:5" ht="15.4" customHeight="1">
       <c r="A188" s="19"/>
-      <c r="B188" s="18"/>
+      <c r="B188" s="24"/>
       <c r="C188" s="14"/>
       <c r="D188" s="16"/>
       <c r="E188" s="14"/>
     </row>
     <row r="189" spans="1:5" ht="15.4" customHeight="1">
       <c r="A189" s="19"/>
-      <c r="B189" s="18"/>
+      <c r="B189" s="24"/>
       <c r="C189" s="14"/>
       <c r="D189" s="16"/>
       <c r="E189" s="14"/>
     </row>
     <row r="190" spans="1:5" ht="15.4" customHeight="1">
       <c r="A190" s="19"/>
-      <c r="B190" s="18"/>
+      <c r="B190" s="24"/>
       <c r="C190" s="14"/>
       <c r="D190" s="16"/>
       <c r="E190" s="14"/>
     </row>
     <row r="191" spans="1:5" ht="15.4" customHeight="1">
       <c r="A191" s="19"/>
-      <c r="B191" s="18"/>
+      <c r="B191" s="24"/>
       <c r="C191" s="14"/>
       <c r="D191" s="16"/>
       <c r="E191" s="14"/>
     </row>
     <row r="192" spans="1:5" ht="15.4" customHeight="1">
       <c r="A192" s="19"/>
-      <c r="B192" s="18"/>
+      <c r="B192" s="24"/>
       <c r="C192" s="14"/>
       <c r="D192" s="16"/>
       <c r="E192" s="14"/>
     </row>
     <row r="193" spans="1:5" ht="15.4" customHeight="1">
       <c r="A193" s="19"/>
-      <c r="B193" s="18"/>
+      <c r="B193" s="24"/>
       <c r="C193" s="14"/>
       <c r="D193" s="16"/>
       <c r="E193" s="14"/>
     </row>
     <row r="194" spans="1:5" ht="15.4" customHeight="1">
       <c r="A194" s="19"/>
-      <c r="B194" s="18"/>
+      <c r="B194" s="24"/>
       <c r="C194" s="14"/>
       <c r="D194" s="16"/>
       <c r="E194" s="14"/>
     </row>
     <row r="195" spans="1:5" ht="15.4" customHeight="1">
       <c r="A195" s="19"/>
-      <c r="B195" s="18"/>
+      <c r="B195" s="24"/>
       <c r="C195" s="14"/>
       <c r="D195" s="16"/>
       <c r="E195" s="14"/>
     </row>
     <row r="196" spans="1:5" ht="15.4" customHeight="1">
       <c r="A196" s="19"/>
-      <c r="B196" s="18"/>
+      <c r="B196" s="24"/>
       <c r="C196" s="14"/>
       <c r="D196" s="16"/>
       <c r="E196" s="14"/>
     </row>
     <row r="197" spans="1:5" ht="15.4" customHeight="1">
       <c r="A197" s="19"/>
-      <c r="B197" s="18"/>
+      <c r="B197" s="24"/>
       <c r="C197" s="14"/>
       <c r="D197" s="16"/>
       <c r="E197" s="14"/>
     </row>
     <row r="198" spans="1:5" ht="15.4" customHeight="1">
       <c r="A198" s="19"/>
-      <c r="B198" s="18"/>
+      <c r="B198" s="24"/>
       <c r="C198" s="14"/>
       <c r="D198" s="16"/>
       <c r="E198" s="14"/>
@@ -9206,7 +9212,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" style="20" customWidth="1"/>
     <col min="2" max="2" width="34.625" style="20" customWidth="1"/>

--- a/documentation/timemanagment/mechtijev-timemanagment.xlsx
+++ b/documentation/timemanagment/mechtijev-timemanagment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfn\git\g6t3\documentation\timemanagment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\SS21\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B532DBFA-D6B1-40A5-9F8C-5799CB9E4B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D870F203-A23A-4F77-87DB-1F56B6A37136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10560" yWindow="12630" windowWidth="21585" windowHeight="5205" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -259,6 +259,18 @@
   <si>
     <t>Translation issues fix</t>
   </si>
+  <si>
+    <t>MR, Invite feature, Styling improvements</t>
+  </si>
+  <si>
+    <t>Styling issues fix, MR Review</t>
+  </si>
+  <si>
+    <t>Abschlussbericht durchgehen &amp; anpassen</t>
+  </si>
+  <si>
+    <t>MR Review &amp; Spectator mode banner</t>
+  </si>
 </sst>
 </file>
 
@@ -463,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1627,7 +1639,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="12.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="4" width="28" customWidth="1"/>
@@ -1699,11 +1711,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="5" customWidth="1"/>
@@ -2166,7 +2178,7 @@
         <v>44316</v>
       </c>
       <c r="B31" s="18">
-        <v>0.29166666666667002</v>
+        <v>0.3125</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>23</v>
@@ -2597,52 +2609,106 @@
       <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A60" s="19"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="16"/>
+      <c r="A60" s="19">
+        <v>44361</v>
+      </c>
+      <c r="B60" s="18">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="E60" s="14"/>
     </row>
     <row r="61" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A61" s="19"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="16"/>
+      <c r="A61" s="19">
+        <v>44361</v>
+      </c>
+      <c r="B61" s="18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A62" s="19"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="16"/>
+      <c r="A62" s="19">
+        <v>44361</v>
+      </c>
+      <c r="B62" s="18">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="E62" s="14"/>
     </row>
     <row r="63" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A63" s="19"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="14"/>
+      <c r="A63" s="19">
+        <v>44363</v>
+      </c>
+      <c r="B63" s="18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="D63" s="16"/>
       <c r="E63" s="14"/>
     </row>
     <row r="64" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A64" s="19"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="16"/>
+      <c r="A64" s="19">
+        <v>44363</v>
+      </c>
+      <c r="B64" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A65" s="19"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="16"/>
+      <c r="A65" s="19">
+        <v>44364</v>
+      </c>
+      <c r="B65" s="18">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A66" s="19"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="16"/>
+      <c r="A66" s="19">
+        <v>44364</v>
+      </c>
+      <c r="B66" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" ht="15.4" customHeight="1">
@@ -9212,7 +9278,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" style="20" customWidth="1"/>
     <col min="2" max="2" width="34.625" style="20" customWidth="1"/>

--- a/documentation/timemanagment/mechtijev-timemanagment.xlsx
+++ b/documentation/timemanagment/mechtijev-timemanagment.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\SS21\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CF32F7-FB88-4E34-AB2C-D09B21DCC17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D870F203-A23A-4F77-87DB-1F56B6A37136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10560" yWindow="12630" windowWidth="21585" windowHeight="5205" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Datenerfassung" sheetId="2" r:id="rId2"/>
     <sheet name="Tätigkeiten" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -65,6 +65,7 @@
         <sz val="14"/>
         <color indexed="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Dauer 
 </t>
@@ -258,6 +259,18 @@
   <si>
     <t>Translation issues fix</t>
   </si>
+  <si>
+    <t>MR, Invite feature, Styling improvements</t>
+  </si>
+  <si>
+    <t>Styling issues fix, MR Review</t>
+  </si>
+  <si>
+    <t>Abschlussbericht durchgehen &amp; anpassen</t>
+  </si>
+  <si>
+    <t>MR Review &amp; Spectator mode banner</t>
+  </si>
 </sst>
 </file>
 
@@ -273,18 +286,21 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -296,12 +312,14 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1694,7 +1712,7 @@
   <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -1727,7 +1745,7 @@
         <v>43891</v>
       </c>
       <c r="B2" s="11">
-        <v>1.083333333333333</v>
+        <v>8.3333333333329998E-2</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>11</v>
@@ -1742,7 +1760,7 @@
         <v>44262</v>
       </c>
       <c r="B3" s="18">
-        <v>1.0277777777777779</v>
+        <v>2.777777777778E-2</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>13</v>
@@ -1757,7 +1775,7 @@
         <v>44263</v>
       </c>
       <c r="B4" s="18">
-        <v>1.055555555555556</v>
+        <v>5.555555555556E-2</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>11</v>
@@ -1772,7 +1790,7 @@
         <v>44268</v>
       </c>
       <c r="B5" s="18">
-        <v>1.15625</v>
+        <v>0.15625</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>13</v>
@@ -1785,7 +1803,7 @@
         <v>44269</v>
       </c>
       <c r="B6" s="18">
-        <v>1.09375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>13</v>
@@ -1800,7 +1818,7 @@
         <v>44270</v>
       </c>
       <c r="B7" s="18">
-        <v>1.020833333333333</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>13</v>
@@ -1815,7 +1833,7 @@
         <v>44273</v>
       </c>
       <c r="B8" s="18">
-        <v>1.020833333333333</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>13</v>
@@ -1830,7 +1848,7 @@
         <v>44283</v>
       </c>
       <c r="B9" s="18">
-        <v>1.104166666666667</v>
+        <v>0.10416666666667</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>13</v>
@@ -1845,7 +1863,7 @@
         <v>44283</v>
       </c>
       <c r="B10" s="18">
-        <v>1.041666666666667</v>
+        <v>4.1666666666670002E-2</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>20</v>
@@ -1860,7 +1878,7 @@
         <v>44283</v>
       </c>
       <c r="B11" s="18">
-        <v>1.020833333333333</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>13</v>
@@ -1875,7 +1893,7 @@
         <v>44291</v>
       </c>
       <c r="B12" s="18">
-        <v>1.083333333333333</v>
+        <v>8.3333333333329998E-2</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>23</v>
@@ -1890,7 +1908,7 @@
         <v>44292</v>
       </c>
       <c r="B13" s="18">
-        <v>1.03125</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>13</v>
@@ -1905,7 +1923,7 @@
         <v>44294</v>
       </c>
       <c r="B14" s="18">
-        <v>1.1875</v>
+        <v>0.1875</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>23</v>
@@ -1920,7 +1938,7 @@
         <v>44296</v>
       </c>
       <c r="B15" s="18">
-        <v>1.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>13</v>
@@ -1935,7 +1953,7 @@
         <v>44297</v>
       </c>
       <c r="B16" s="18">
-        <v>1.1527777777777779</v>
+        <v>0.15277777777778001</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>23</v>
@@ -1950,7 +1968,7 @@
         <v>44297</v>
       </c>
       <c r="B17" s="18">
-        <v>1.083333333333333</v>
+        <v>8.3333333333329998E-2</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>23</v>
@@ -1965,7 +1983,7 @@
         <v>44298</v>
       </c>
       <c r="B18" s="18">
-        <v>1.083333333333333</v>
+        <v>8.3333333333329998E-2</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>11</v>
@@ -1980,7 +1998,7 @@
         <v>44298</v>
       </c>
       <c r="B19" s="18">
-        <v>1.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>20</v>
@@ -1995,7 +2013,7 @@
         <v>44302</v>
       </c>
       <c r="B20" s="18">
-        <v>1.020833333333333</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>23</v>
@@ -2010,7 +2028,7 @@
         <v>44303</v>
       </c>
       <c r="B21" s="18">
-        <v>1.104166666666667</v>
+        <v>0.10416666666667</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>23</v>
@@ -2025,7 +2043,7 @@
         <v>44304</v>
       </c>
       <c r="B22" s="18">
-        <v>1.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>23</v>
@@ -2040,7 +2058,7 @@
         <v>44307</v>
       </c>
       <c r="B23" s="18">
-        <v>1.041666666666667</v>
+        <v>4.1666666666670002E-2</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>35</v>
@@ -2055,7 +2073,7 @@
         <v>44308</v>
       </c>
       <c r="B24" s="18">
-        <v>1.09375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>23</v>
@@ -2070,7 +2088,7 @@
         <v>44309</v>
       </c>
       <c r="B25" s="18">
-        <v>1.135416666666667</v>
+        <v>0.13541666666666999</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>23</v>
@@ -2085,7 +2103,7 @@
         <v>44310</v>
       </c>
       <c r="B26" s="18">
-        <v>1.0902777777777779</v>
+        <v>9.0277777777779997E-2</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>23</v>
@@ -2100,7 +2118,7 @@
         <v>44311</v>
       </c>
       <c r="B27" s="18">
-        <v>1.0277777777777779</v>
+        <v>2.777777777778E-2</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>23</v>
@@ -2115,7 +2133,7 @@
         <v>44311</v>
       </c>
       <c r="B28" s="18">
-        <v>1.041666666666667</v>
+        <v>4.1666666666670002E-2</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>20</v>
@@ -2130,7 +2148,7 @@
         <v>44313</v>
       </c>
       <c r="B29" s="18">
-        <v>1.15625</v>
+        <v>0.15625</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>23</v>
@@ -2145,7 +2163,7 @@
         <v>44314</v>
       </c>
       <c r="B30" s="18">
-        <v>1.100694444444444</v>
+        <v>0.10069444444444001</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>23</v>
@@ -2160,7 +2178,7 @@
         <v>44316</v>
       </c>
       <c r="B31" s="18">
-        <v>1.291666666666667</v>
+        <v>0.3125</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>23</v>
@@ -2175,7 +2193,7 @@
         <v>44316</v>
       </c>
       <c r="B32" s="18">
-        <v>1.020833333333333</v>
+        <v>2.0833333333330002E-2</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>20</v>
@@ -2190,7 +2208,7 @@
         <v>44317</v>
       </c>
       <c r="B33" s="18">
-        <v>1.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>23</v>
@@ -2205,7 +2223,7 @@
         <v>44319</v>
       </c>
       <c r="B34" s="18">
-        <v>1.03125</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>20</v>
@@ -2220,7 +2238,7 @@
         <v>44321</v>
       </c>
       <c r="B35" s="18">
-        <v>1.135416666666667</v>
+        <v>0.13541666666666999</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>23</v>
@@ -2235,7 +2253,7 @@
         <v>44322</v>
       </c>
       <c r="B36" s="18">
-        <v>1.09375</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>23</v>
@@ -2250,7 +2268,7 @@
         <v>44323</v>
       </c>
       <c r="B37" s="18">
-        <v>1.041666666666667</v>
+        <v>4.1666666666670002E-2</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>20</v>
@@ -2265,7 +2283,7 @@
         <v>44323</v>
       </c>
       <c r="B38" s="18">
-        <v>1.166666666666667</v>
+        <v>0.16666666666666999</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>23</v>
@@ -2280,7 +2298,7 @@
         <v>44324</v>
       </c>
       <c r="B39" s="18">
-        <v>1.135416666666667</v>
+        <v>0.13541666666666999</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>23</v>
@@ -2295,7 +2313,7 @@
         <v>44325</v>
       </c>
       <c r="B40" s="18">
-        <v>1.166666666666667</v>
+        <v>0.16666666666666999</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>23</v>
@@ -2310,7 +2328,7 @@
         <v>44326</v>
       </c>
       <c r="B41" s="18">
-        <v>44332.145833333336</v>
+        <v>0.14583333330000001</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>23</v>
@@ -2325,7 +2343,7 @@
         <v>44327</v>
       </c>
       <c r="B42" s="18">
-        <v>44332.104166666664</v>
+        <v>0.10416666669999999</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>23</v>
@@ -2340,7 +2358,7 @@
         <v>44328</v>
       </c>
       <c r="B43" s="18">
-        <v>44332.302083333336</v>
+        <v>0.30208333329999998</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>23</v>
@@ -2355,7 +2373,7 @@
         <v>44329</v>
       </c>
       <c r="B44" s="18">
-        <v>44332.520833333336</v>
+        <v>0.52083333330000003</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>23</v>
@@ -2370,7 +2388,7 @@
         <v>44331</v>
       </c>
       <c r="B45" s="18">
-        <v>44332.1875</v>
+        <v>0.1875</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>23</v>
@@ -2385,7 +2403,7 @@
         <v>44332</v>
       </c>
       <c r="B46" s="18">
-        <v>44332.041666666664</v>
+        <v>4.16666667E-2</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>23</v>
@@ -2400,7 +2418,7 @@
         <v>44335</v>
       </c>
       <c r="B47" s="18">
-        <v>0.10416666666666667</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>56</v>
@@ -2415,7 +2433,7 @@
         <v>44344</v>
       </c>
       <c r="B48" s="18">
-        <v>8.3333333333333329E-2</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>20</v>
@@ -2460,7 +2478,7 @@
         <v>44352</v>
       </c>
       <c r="B51" s="18">
-        <v>4.1666666666666664E-2</v>
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>23</v>
@@ -2475,7 +2493,7 @@
         <v>44354</v>
       </c>
       <c r="B52" s="18">
-        <v>2.0833333333333332E-2</v>
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>20</v>
@@ -2490,7 +2508,7 @@
         <v>44357</v>
       </c>
       <c r="B53" s="18">
-        <v>0.33333333333333331</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>23</v>
@@ -2505,7 +2523,7 @@
         <v>44481</v>
       </c>
       <c r="B54" s="18">
-        <v>5.2083333333333336E-2</v>
+        <v>5.2083333333333301E-2</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>23</v>
@@ -2520,7 +2538,7 @@
         <v>44277</v>
       </c>
       <c r="B55" s="18">
-        <v>7.2916666666666671E-2</v>
+        <v>7.2916666666666699E-2</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>11</v>
@@ -2535,7 +2553,7 @@
         <v>44312</v>
       </c>
       <c r="B56" s="18">
-        <v>7.2916666666666671E-2</v>
+        <v>7.2916666666666699E-2</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>11</v>
@@ -2550,7 +2568,7 @@
         <v>44326</v>
       </c>
       <c r="B57" s="18">
-        <v>7.2916666666666671E-2</v>
+        <v>7.2916666666666699E-2</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>11</v>
@@ -2565,7 +2583,7 @@
         <v>44347</v>
       </c>
       <c r="B58" s="18">
-        <v>7.2916666666666671E-2</v>
+        <v>7.2916666666666699E-2</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>11</v>
@@ -2591,52 +2609,106 @@
       <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A60" s="19"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="16"/>
+      <c r="A60" s="19">
+        <v>44361</v>
+      </c>
+      <c r="B60" s="18">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="E60" s="14"/>
     </row>
     <row r="61" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A61" s="19"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="16"/>
+      <c r="A61" s="19">
+        <v>44361</v>
+      </c>
+      <c r="B61" s="18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A62" s="19"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="16"/>
+      <c r="A62" s="19">
+        <v>44361</v>
+      </c>
+      <c r="B62" s="18">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="E62" s="14"/>
     </row>
     <row r="63" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A63" s="19"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="14"/>
+      <c r="A63" s="19">
+        <v>44363</v>
+      </c>
+      <c r="B63" s="18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="D63" s="16"/>
       <c r="E63" s="14"/>
     </row>
     <row r="64" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A64" s="19"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="16"/>
+      <c r="A64" s="19">
+        <v>44363</v>
+      </c>
+      <c r="B64" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A65" s="19"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="16"/>
+      <c r="A65" s="19">
+        <v>44364</v>
+      </c>
+      <c r="B65" s="18">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" ht="15.4" customHeight="1">
-      <c r="A66" s="19"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="16"/>
+      <c r="A66" s="19">
+        <v>44364</v>
+      </c>
+      <c r="B66" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" ht="15.4" customHeight="1">
@@ -2949,616 +3021,616 @@
     </row>
     <row r="111" spans="1:5" ht="15.4" customHeight="1">
       <c r="A111" s="19"/>
-      <c r="B111" s="18"/>
+      <c r="B111" s="24"/>
       <c r="C111" s="14"/>
       <c r="D111" s="16"/>
       <c r="E111" s="14"/>
     </row>
     <row r="112" spans="1:5" ht="15.4" customHeight="1">
       <c r="A112" s="19"/>
-      <c r="B112" s="18"/>
+      <c r="B112" s="24"/>
       <c r="C112" s="14"/>
       <c r="D112" s="16"/>
       <c r="E112" s="14"/>
     </row>
     <row r="113" spans="1:5" ht="15.4" customHeight="1">
       <c r="A113" s="19"/>
-      <c r="B113" s="18"/>
+      <c r="B113" s="24"/>
       <c r="C113" s="14"/>
       <c r="D113" s="16"/>
       <c r="E113" s="14"/>
     </row>
     <row r="114" spans="1:5" ht="15.4" customHeight="1">
       <c r="A114" s="19"/>
-      <c r="B114" s="18"/>
+      <c r="B114" s="24"/>
       <c r="C114" s="14"/>
       <c r="D114" s="16"/>
       <c r="E114" s="14"/>
     </row>
     <row r="115" spans="1:5" ht="15.4" customHeight="1">
       <c r="A115" s="19"/>
-      <c r="B115" s="18"/>
+      <c r="B115" s="24"/>
       <c r="C115" s="14"/>
       <c r="D115" s="16"/>
       <c r="E115" s="14"/>
     </row>
     <row r="116" spans="1:5" ht="15.4" customHeight="1">
       <c r="A116" s="19"/>
-      <c r="B116" s="18"/>
+      <c r="B116" s="24"/>
       <c r="C116" s="14"/>
       <c r="D116" s="16"/>
       <c r="E116" s="14"/>
     </row>
     <row r="117" spans="1:5" ht="15.4" customHeight="1">
       <c r="A117" s="19"/>
-      <c r="B117" s="18"/>
+      <c r="B117" s="24"/>
       <c r="C117" s="14"/>
       <c r="D117" s="16"/>
       <c r="E117" s="14"/>
     </row>
     <row r="118" spans="1:5" ht="15.4" customHeight="1">
       <c r="A118" s="19"/>
-      <c r="B118" s="18"/>
+      <c r="B118" s="24"/>
       <c r="C118" s="14"/>
       <c r="D118" s="16"/>
       <c r="E118" s="14"/>
     </row>
     <row r="119" spans="1:5" ht="15.4" customHeight="1">
       <c r="A119" s="19"/>
-      <c r="B119" s="18"/>
+      <c r="B119" s="24"/>
       <c r="C119" s="14"/>
       <c r="D119" s="16"/>
       <c r="E119" s="14"/>
     </row>
     <row r="120" spans="1:5" ht="15.4" customHeight="1">
       <c r="A120" s="19"/>
-      <c r="B120" s="18"/>
+      <c r="B120" s="24"/>
       <c r="C120" s="14"/>
       <c r="D120" s="16"/>
       <c r="E120" s="14"/>
     </row>
     <row r="121" spans="1:5" ht="15.4" customHeight="1">
       <c r="A121" s="19"/>
-      <c r="B121" s="18"/>
+      <c r="B121" s="24"/>
       <c r="C121" s="14"/>
       <c r="D121" s="16"/>
       <c r="E121" s="14"/>
     </row>
     <row r="122" spans="1:5" ht="15.4" customHeight="1">
       <c r="A122" s="19"/>
-      <c r="B122" s="18"/>
+      <c r="B122" s="24"/>
       <c r="C122" s="14"/>
       <c r="D122" s="16"/>
       <c r="E122" s="14"/>
     </row>
     <row r="123" spans="1:5" ht="15.4" customHeight="1">
       <c r="A123" s="19"/>
-      <c r="B123" s="18"/>
+      <c r="B123" s="24"/>
       <c r="C123" s="14"/>
       <c r="D123" s="16"/>
       <c r="E123" s="14"/>
     </row>
     <row r="124" spans="1:5" ht="15.4" customHeight="1">
       <c r="A124" s="19"/>
-      <c r="B124" s="18"/>
+      <c r="B124" s="24"/>
       <c r="C124" s="14"/>
       <c r="D124" s="16"/>
       <c r="E124" s="14"/>
     </row>
     <row r="125" spans="1:5" ht="15.4" customHeight="1">
       <c r="A125" s="19"/>
-      <c r="B125" s="18"/>
+      <c r="B125" s="24"/>
       <c r="C125" s="14"/>
       <c r="D125" s="16"/>
       <c r="E125" s="14"/>
     </row>
     <row r="126" spans="1:5" ht="15.4" customHeight="1">
       <c r="A126" s="19"/>
-      <c r="B126" s="18"/>
+      <c r="B126" s="24"/>
       <c r="C126" s="14"/>
       <c r="D126" s="16"/>
       <c r="E126" s="14"/>
     </row>
     <row r="127" spans="1:5" ht="15.4" customHeight="1">
       <c r="A127" s="19"/>
-      <c r="B127" s="18"/>
+      <c r="B127" s="24"/>
       <c r="C127" s="14"/>
       <c r="D127" s="16"/>
       <c r="E127" s="14"/>
     </row>
     <row r="128" spans="1:5" ht="15.4" customHeight="1">
       <c r="A128" s="19"/>
-      <c r="B128" s="18"/>
+      <c r="B128" s="24"/>
       <c r="C128" s="14"/>
       <c r="D128" s="16"/>
       <c r="E128" s="14"/>
     </row>
     <row r="129" spans="1:5" ht="15.4" customHeight="1">
       <c r="A129" s="19"/>
-      <c r="B129" s="18"/>
+      <c r="B129" s="24"/>
       <c r="C129" s="14"/>
       <c r="D129" s="16"/>
       <c r="E129" s="14"/>
     </row>
     <row r="130" spans="1:5" ht="15.4" customHeight="1">
       <c r="A130" s="19"/>
-      <c r="B130" s="18"/>
+      <c r="B130" s="24"/>
       <c r="C130" s="14"/>
       <c r="D130" s="16"/>
       <c r="E130" s="14"/>
     </row>
     <row r="131" spans="1:5" ht="15.4" customHeight="1">
       <c r="A131" s="19"/>
-      <c r="B131" s="18"/>
+      <c r="B131" s="24"/>
       <c r="C131" s="14"/>
       <c r="D131" s="16"/>
       <c r="E131" s="14"/>
     </row>
     <row r="132" spans="1:5" ht="15.4" customHeight="1">
       <c r="A132" s="19"/>
-      <c r="B132" s="18"/>
+      <c r="B132" s="24"/>
       <c r="C132" s="14"/>
       <c r="D132" s="16"/>
       <c r="E132" s="14"/>
     </row>
     <row r="133" spans="1:5" ht="15.4" customHeight="1">
       <c r="A133" s="19"/>
-      <c r="B133" s="18"/>
+      <c r="B133" s="24"/>
       <c r="C133" s="14"/>
       <c r="D133" s="16"/>
       <c r="E133" s="14"/>
     </row>
     <row r="134" spans="1:5" ht="15.4" customHeight="1">
       <c r="A134" s="19"/>
-      <c r="B134" s="18"/>
+      <c r="B134" s="24"/>
       <c r="C134" s="14"/>
       <c r="D134" s="16"/>
       <c r="E134" s="14"/>
     </row>
     <row r="135" spans="1:5" ht="15.4" customHeight="1">
       <c r="A135" s="19"/>
-      <c r="B135" s="18"/>
+      <c r="B135" s="24"/>
       <c r="C135" s="14"/>
       <c r="D135" s="16"/>
       <c r="E135" s="14"/>
     </row>
     <row r="136" spans="1:5" ht="15.4" customHeight="1">
       <c r="A136" s="19"/>
-      <c r="B136" s="18"/>
+      <c r="B136" s="24"/>
       <c r="C136" s="14"/>
       <c r="D136" s="16"/>
       <c r="E136" s="14"/>
     </row>
     <row r="137" spans="1:5" ht="15.4" customHeight="1">
       <c r="A137" s="19"/>
-      <c r="B137" s="18"/>
+      <c r="B137" s="24"/>
       <c r="C137" s="14"/>
       <c r="D137" s="16"/>
       <c r="E137" s="14"/>
     </row>
     <row r="138" spans="1:5" ht="15.4" customHeight="1">
       <c r="A138" s="19"/>
-      <c r="B138" s="18"/>
+      <c r="B138" s="24"/>
       <c r="C138" s="14"/>
       <c r="D138" s="16"/>
       <c r="E138" s="14"/>
     </row>
     <row r="139" spans="1:5" ht="15.4" customHeight="1">
       <c r="A139" s="19"/>
-      <c r="B139" s="18"/>
+      <c r="B139" s="24"/>
       <c r="C139" s="14"/>
       <c r="D139" s="16"/>
       <c r="E139" s="14"/>
     </row>
     <row r="140" spans="1:5" ht="15.4" customHeight="1">
       <c r="A140" s="19"/>
-      <c r="B140" s="18"/>
+      <c r="B140" s="24"/>
       <c r="C140" s="14"/>
       <c r="D140" s="16"/>
       <c r="E140" s="14"/>
     </row>
     <row r="141" spans="1:5" ht="15.4" customHeight="1">
       <c r="A141" s="19"/>
-      <c r="B141" s="18"/>
+      <c r="B141" s="24"/>
       <c r="C141" s="14"/>
       <c r="D141" s="16"/>
       <c r="E141" s="14"/>
     </row>
     <row r="142" spans="1:5" ht="15.4" customHeight="1">
       <c r="A142" s="19"/>
-      <c r="B142" s="18"/>
+      <c r="B142" s="24"/>
       <c r="C142" s="14"/>
       <c r="D142" s="16"/>
       <c r="E142" s="14"/>
     </row>
     <row r="143" spans="1:5" ht="15.4" customHeight="1">
       <c r="A143" s="19"/>
-      <c r="B143" s="18"/>
+      <c r="B143" s="24"/>
       <c r="C143" s="14"/>
       <c r="D143" s="16"/>
       <c r="E143" s="14"/>
     </row>
     <row r="144" spans="1:5" ht="15.4" customHeight="1">
       <c r="A144" s="19"/>
-      <c r="B144" s="18"/>
+      <c r="B144" s="24"/>
       <c r="C144" s="14"/>
       <c r="D144" s="16"/>
       <c r="E144" s="14"/>
     </row>
     <row r="145" spans="1:5" ht="15.4" customHeight="1">
       <c r="A145" s="19"/>
-      <c r="B145" s="18"/>
+      <c r="B145" s="24"/>
       <c r="C145" s="14"/>
       <c r="D145" s="16"/>
       <c r="E145" s="14"/>
     </row>
     <row r="146" spans="1:5" ht="15.4" customHeight="1">
       <c r="A146" s="19"/>
-      <c r="B146" s="18"/>
+      <c r="B146" s="24"/>
       <c r="C146" s="14"/>
       <c r="D146" s="16"/>
       <c r="E146" s="14"/>
     </row>
     <row r="147" spans="1:5" ht="15.4" customHeight="1">
       <c r="A147" s="19"/>
-      <c r="B147" s="18"/>
+      <c r="B147" s="24"/>
       <c r="C147" s="14"/>
       <c r="D147" s="16"/>
       <c r="E147" s="14"/>
     </row>
     <row r="148" spans="1:5" ht="15.4" customHeight="1">
       <c r="A148" s="19"/>
-      <c r="B148" s="18"/>
+      <c r="B148" s="24"/>
       <c r="C148" s="14"/>
       <c r="D148" s="16"/>
       <c r="E148" s="14"/>
     </row>
     <row r="149" spans="1:5" ht="15.4" customHeight="1">
       <c r="A149" s="19"/>
-      <c r="B149" s="18"/>
+      <c r="B149" s="24"/>
       <c r="C149" s="14"/>
       <c r="D149" s="16"/>
       <c r="E149" s="14"/>
     </row>
     <row r="150" spans="1:5" ht="15.4" customHeight="1">
       <c r="A150" s="19"/>
-      <c r="B150" s="18"/>
+      <c r="B150" s="24"/>
       <c r="C150" s="14"/>
       <c r="D150" s="16"/>
       <c r="E150" s="14"/>
     </row>
     <row r="151" spans="1:5" ht="15.4" customHeight="1">
       <c r="A151" s="19"/>
-      <c r="B151" s="18"/>
+      <c r="B151" s="24"/>
       <c r="C151" s="14"/>
       <c r="D151" s="16"/>
       <c r="E151" s="14"/>
     </row>
     <row r="152" spans="1:5" ht="15.4" customHeight="1">
       <c r="A152" s="19"/>
-      <c r="B152" s="18"/>
+      <c r="B152" s="24"/>
       <c r="C152" s="14"/>
       <c r="D152" s="16"/>
       <c r="E152" s="14"/>
     </row>
     <row r="153" spans="1:5" ht="15.4" customHeight="1">
       <c r="A153" s="19"/>
-      <c r="B153" s="18"/>
+      <c r="B153" s="24"/>
       <c r="C153" s="14"/>
       <c r="D153" s="16"/>
       <c r="E153" s="14"/>
     </row>
     <row r="154" spans="1:5" ht="15.4" customHeight="1">
       <c r="A154" s="19"/>
-      <c r="B154" s="18"/>
+      <c r="B154" s="24"/>
       <c r="C154" s="14"/>
       <c r="D154" s="16"/>
       <c r="E154" s="14"/>
     </row>
     <row r="155" spans="1:5" ht="15.4" customHeight="1">
       <c r="A155" s="19"/>
-      <c r="B155" s="18"/>
+      <c r="B155" s="24"/>
       <c r="C155" s="14"/>
       <c r="D155" s="16"/>
       <c r="E155" s="14"/>
     </row>
     <row r="156" spans="1:5" ht="15.4" customHeight="1">
       <c r="A156" s="19"/>
-      <c r="B156" s="18"/>
+      <c r="B156" s="24"/>
       <c r="C156" s="14"/>
       <c r="D156" s="16"/>
       <c r="E156" s="14"/>
     </row>
     <row r="157" spans="1:5" ht="15.4" customHeight="1">
       <c r="A157" s="19"/>
-      <c r="B157" s="18"/>
+      <c r="B157" s="24"/>
       <c r="C157" s="14"/>
       <c r="D157" s="16"/>
       <c r="E157" s="14"/>
     </row>
     <row r="158" spans="1:5" ht="15.4" customHeight="1">
       <c r="A158" s="19"/>
-      <c r="B158" s="18"/>
+      <c r="B158" s="24"/>
       <c r="C158" s="14"/>
       <c r="D158" s="16"/>
       <c r="E158" s="14"/>
     </row>
     <row r="159" spans="1:5" ht="15.4" customHeight="1">
       <c r="A159" s="19"/>
-      <c r="B159" s="18"/>
+      <c r="B159" s="24"/>
       <c r="C159" s="14"/>
       <c r="D159" s="16"/>
       <c r="E159" s="14"/>
     </row>
     <row r="160" spans="1:5" ht="15.4" customHeight="1">
       <c r="A160" s="19"/>
-      <c r="B160" s="18"/>
+      <c r="B160" s="24"/>
       <c r="C160" s="14"/>
       <c r="D160" s="16"/>
       <c r="E160" s="14"/>
     </row>
     <row r="161" spans="1:5" ht="15.4" customHeight="1">
       <c r="A161" s="19"/>
-      <c r="B161" s="18"/>
+      <c r="B161" s="24"/>
       <c r="C161" s="14"/>
       <c r="D161" s="16"/>
       <c r="E161" s="14"/>
     </row>
     <row r="162" spans="1:5" ht="15.4" customHeight="1">
       <c r="A162" s="19"/>
-      <c r="B162" s="18"/>
+      <c r="B162" s="24"/>
       <c r="C162" s="14"/>
       <c r="D162" s="16"/>
       <c r="E162" s="14"/>
     </row>
     <row r="163" spans="1:5" ht="15.4" customHeight="1">
       <c r="A163" s="19"/>
-      <c r="B163" s="18"/>
+      <c r="B163" s="24"/>
       <c r="C163" s="14"/>
       <c r="D163" s="16"/>
       <c r="E163" s="14"/>
     </row>
     <row r="164" spans="1:5" ht="15.4" customHeight="1">
       <c r="A164" s="19"/>
-      <c r="B164" s="18"/>
+      <c r="B164" s="24"/>
       <c r="C164" s="14"/>
       <c r="D164" s="16"/>
       <c r="E164" s="14"/>
     </row>
     <row r="165" spans="1:5" ht="15.4" customHeight="1">
       <c r="A165" s="19"/>
-      <c r="B165" s="18"/>
+      <c r="B165" s="24"/>
       <c r="C165" s="14"/>
       <c r="D165" s="16"/>
       <c r="E165" s="14"/>
     </row>
     <row r="166" spans="1:5" ht="15.4" customHeight="1">
       <c r="A166" s="19"/>
-      <c r="B166" s="18"/>
+      <c r="B166" s="24"/>
       <c r="C166" s="14"/>
       <c r="D166" s="16"/>
       <c r="E166" s="14"/>
     </row>
     <row r="167" spans="1:5" ht="15.4" customHeight="1">
       <c r="A167" s="19"/>
-      <c r="B167" s="18"/>
+      <c r="B167" s="24"/>
       <c r="C167" s="14"/>
       <c r="D167" s="16"/>
       <c r="E167" s="14"/>
     </row>
     <row r="168" spans="1:5" ht="15.4" customHeight="1">
       <c r="A168" s="19"/>
-      <c r="B168" s="18"/>
+      <c r="B168" s="24"/>
       <c r="C168" s="14"/>
       <c r="D168" s="16"/>
       <c r="E168" s="14"/>
     </row>
     <row r="169" spans="1:5" ht="15.4" customHeight="1">
       <c r="A169" s="19"/>
-      <c r="B169" s="18"/>
+      <c r="B169" s="24"/>
       <c r="C169" s="14"/>
       <c r="D169" s="16"/>
       <c r="E169" s="14"/>
     </row>
     <row r="170" spans="1:5" ht="15.4" customHeight="1">
       <c r="A170" s="19"/>
-      <c r="B170" s="18"/>
+      <c r="B170" s="24"/>
       <c r="C170" s="14"/>
       <c r="D170" s="16"/>
       <c r="E170" s="14"/>
     </row>
     <row r="171" spans="1:5" ht="15.4" customHeight="1">
       <c r="A171" s="19"/>
-      <c r="B171" s="18"/>
+      <c r="B171" s="24"/>
       <c r="C171" s="14"/>
       <c r="D171" s="16"/>
       <c r="E171" s="14"/>
     </row>
     <row r="172" spans="1:5" ht="15.4" customHeight="1">
       <c r="A172" s="19"/>
-      <c r="B172" s="18"/>
+      <c r="B172" s="24"/>
       <c r="C172" s="14"/>
       <c r="D172" s="16"/>
       <c r="E172" s="14"/>
     </row>
     <row r="173" spans="1:5" ht="15.4" customHeight="1">
       <c r="A173" s="19"/>
-      <c r="B173" s="18"/>
+      <c r="B173" s="24"/>
       <c r="C173" s="14"/>
       <c r="D173" s="16"/>
       <c r="E173" s="14"/>
     </row>
     <row r="174" spans="1:5" ht="15.4" customHeight="1">
       <c r="A174" s="19"/>
-      <c r="B174" s="18"/>
+      <c r="B174" s="24"/>
       <c r="C174" s="14"/>
       <c r="D174" s="16"/>
       <c r="E174" s="14"/>
     </row>
     <row r="175" spans="1:5" ht="15.4" customHeight="1">
       <c r="A175" s="19"/>
-      <c r="B175" s="18"/>
+      <c r="B175" s="24"/>
       <c r="C175" s="14"/>
       <c r="D175" s="16"/>
       <c r="E175" s="14"/>
     </row>
     <row r="176" spans="1:5" ht="15.4" customHeight="1">
       <c r="A176" s="19"/>
-      <c r="B176" s="18"/>
+      <c r="B176" s="24"/>
       <c r="C176" s="14"/>
       <c r="D176" s="16"/>
       <c r="E176" s="14"/>
     </row>
     <row r="177" spans="1:5" ht="15.4" customHeight="1">
       <c r="A177" s="19"/>
-      <c r="B177" s="18"/>
+      <c r="B177" s="24"/>
       <c r="C177" s="14"/>
       <c r="D177" s="16"/>
       <c r="E177" s="14"/>
     </row>
     <row r="178" spans="1:5" ht="15.4" customHeight="1">
       <c r="A178" s="19"/>
-      <c r="B178" s="18"/>
+      <c r="B178" s="24"/>
       <c r="C178" s="14"/>
       <c r="D178" s="16"/>
       <c r="E178" s="14"/>
     </row>
     <row r="179" spans="1:5" ht="15.4" customHeight="1">
       <c r="A179" s="19"/>
-      <c r="B179" s="18"/>
+      <c r="B179" s="24"/>
       <c r="C179" s="14"/>
       <c r="D179" s="16"/>
       <c r="E179" s="14"/>
     </row>
     <row r="180" spans="1:5" ht="15.4" customHeight="1">
       <c r="A180" s="19"/>
-      <c r="B180" s="18"/>
+      <c r="B180" s="24"/>
       <c r="C180" s="14"/>
       <c r="D180" s="16"/>
       <c r="E180" s="14"/>
     </row>
     <row r="181" spans="1:5" ht="15.4" customHeight="1">
       <c r="A181" s="19"/>
-      <c r="B181" s="18"/>
+      <c r="B181" s="24"/>
       <c r="C181" s="14"/>
       <c r="D181" s="16"/>
       <c r="E181" s="14"/>
     </row>
     <row r="182" spans="1:5" ht="15.4" customHeight="1">
       <c r="A182" s="19"/>
-      <c r="B182" s="18"/>
+      <c r="B182" s="24"/>
       <c r="C182" s="14"/>
       <c r="D182" s="16"/>
       <c r="E182" s="14"/>
     </row>
     <row r="183" spans="1:5" ht="15.4" customHeight="1">
       <c r="A183" s="19"/>
-      <c r="B183" s="18"/>
+      <c r="B183" s="24"/>
       <c r="C183" s="14"/>
       <c r="D183" s="16"/>
       <c r="E183" s="14"/>
     </row>
     <row r="184" spans="1:5" ht="15.4" customHeight="1">
       <c r="A184" s="19"/>
-      <c r="B184" s="18"/>
+      <c r="B184" s="24"/>
       <c r="C184" s="14"/>
       <c r="D184" s="16"/>
       <c r="E184" s="14"/>
     </row>
     <row r="185" spans="1:5" ht="15.4" customHeight="1">
       <c r="A185" s="19"/>
-      <c r="B185" s="18"/>
+      <c r="B185" s="24"/>
       <c r="C185" s="14"/>
       <c r="D185" s="16"/>
       <c r="E185" s="14"/>
     </row>
     <row r="186" spans="1:5" ht="15.4" customHeight="1">
       <c r="A186" s="19"/>
-      <c r="B186" s="18"/>
+      <c r="B186" s="24"/>
       <c r="C186" s="14"/>
       <c r="D186" s="16"/>
       <c r="E186" s="14"/>
     </row>
     <row r="187" spans="1:5" ht="15.4" customHeight="1">
       <c r="A187" s="19"/>
-      <c r="B187" s="18"/>
+      <c r="B187" s="24"/>
       <c r="C187" s="14"/>
       <c r="D187" s="16"/>
       <c r="E187" s="14"/>
     </row>
     <row r="188" spans="1:5" ht="15.4" customHeight="1">
       <c r="A188" s="19"/>
-      <c r="B188" s="18"/>
+      <c r="B188" s="24"/>
       <c r="C188" s="14"/>
       <c r="D188" s="16"/>
       <c r="E188" s="14"/>
     </row>
     <row r="189" spans="1:5" ht="15.4" customHeight="1">
       <c r="A189" s="19"/>
-      <c r="B189" s="18"/>
+      <c r="B189" s="24"/>
       <c r="C189" s="14"/>
       <c r="D189" s="16"/>
       <c r="E189" s="14"/>
     </row>
     <row r="190" spans="1:5" ht="15.4" customHeight="1">
       <c r="A190" s="19"/>
-      <c r="B190" s="18"/>
+      <c r="B190" s="24"/>
       <c r="C190" s="14"/>
       <c r="D190" s="16"/>
       <c r="E190" s="14"/>
     </row>
     <row r="191" spans="1:5" ht="15.4" customHeight="1">
       <c r="A191" s="19"/>
-      <c r="B191" s="18"/>
+      <c r="B191" s="24"/>
       <c r="C191" s="14"/>
       <c r="D191" s="16"/>
       <c r="E191" s="14"/>
     </row>
     <row r="192" spans="1:5" ht="15.4" customHeight="1">
       <c r="A192" s="19"/>
-      <c r="B192" s="18"/>
+      <c r="B192" s="24"/>
       <c r="C192" s="14"/>
       <c r="D192" s="16"/>
       <c r="E192" s="14"/>
     </row>
     <row r="193" spans="1:5" ht="15.4" customHeight="1">
       <c r="A193" s="19"/>
-      <c r="B193" s="18"/>
+      <c r="B193" s="24"/>
       <c r="C193" s="14"/>
       <c r="D193" s="16"/>
       <c r="E193" s="14"/>
     </row>
     <row r="194" spans="1:5" ht="15.4" customHeight="1">
       <c r="A194" s="19"/>
-      <c r="B194" s="18"/>
+      <c r="B194" s="24"/>
       <c r="C194" s="14"/>
       <c r="D194" s="16"/>
       <c r="E194" s="14"/>
     </row>
     <row r="195" spans="1:5" ht="15.4" customHeight="1">
       <c r="A195" s="19"/>
-      <c r="B195" s="18"/>
+      <c r="B195" s="24"/>
       <c r="C195" s="14"/>
       <c r="D195" s="16"/>
       <c r="E195" s="14"/>
     </row>
     <row r="196" spans="1:5" ht="15.4" customHeight="1">
       <c r="A196" s="19"/>
-      <c r="B196" s="18"/>
+      <c r="B196" s="24"/>
       <c r="C196" s="14"/>
       <c r="D196" s="16"/>
       <c r="E196" s="14"/>
     </row>
     <row r="197" spans="1:5" ht="15.4" customHeight="1">
       <c r="A197" s="19"/>
-      <c r="B197" s="18"/>
+      <c r="B197" s="24"/>
       <c r="C197" s="14"/>
       <c r="D197" s="16"/>
       <c r="E197" s="14"/>
     </row>
     <row r="198" spans="1:5" ht="15.4" customHeight="1">
       <c r="A198" s="19"/>
-      <c r="B198" s="18"/>
+      <c r="B198" s="24"/>
       <c r="C198" s="14"/>
       <c r="D198" s="16"/>
       <c r="E198" s="14"/>
